--- a/test_data/1.xlsx
+++ b/test_data/1.xlsx
@@ -2,12 +2,12 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection lockStructure="1"/>
+  <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +17,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +45,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -422,66 +434,66 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Date</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Time In</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Time Out</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Time of Session</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Number of identical queries</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Department</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Type of Query</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Level</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Interaction type</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Location</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Number of Idenitical Queries</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Room Full?</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Department</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Type of Query</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Level</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Interaction type</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Location</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>05/07/2022</t>
+          <t>11/07/2022</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -499,42 +511,43 @@
           <t>0:00</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>1</v>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Biosciences and Medicine</t>
+        </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Maths - Numeracy</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>UG4</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>Drop-in</t>
+        </is>
+      </c>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Stag Hill</t>
+        </is>
+      </c>
+      <c r="J2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>No</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Business School</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Maths - Complex Numbers</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>UG2</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Drop-in</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Stag Hill</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <sheetProtection selectLockedCells="0" selectUnlockedCells="0" sheet="1" objects="0" insertRows="1" insertHyperlinks="1" autoFilter="1" scenarios="0" formatColumns="1" deleteColumns="1" insertColumns="1" pivotTables="1" deleteRows="1" formatCells="1" formatRows="1" sort="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>